--- a/src/Input/MasterTemplate.xlsx
+++ b/src/Input/MasterTemplate.xlsx
@@ -302,12 +302,6 @@
     <t xml:space="preserve">Apr'22 to June'22</t>
   </si>
   <si>
-    <t xml:space="preserve">State Goods &amp; Services Tax @ 9% annum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Goods &amp; Services Tax @ 9% annum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interest on Previous Dues @ 24% annum</t>
   </si>
   <si>
@@ -315,15 +309,19 @@
   </si>
   <si>
     <t xml:space="preserve">Round off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Goods &amp; Services Tax @ 9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Goods &amp; Services Tax @ 9%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00_);\(0.00\)"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -753,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -803,9 +801,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -824,18 +819,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -905,6 +888,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -918,6 +910,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1345,7 +1340,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:F25"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,93 +1353,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1467,8 +1462,8 @@
       <c r="E10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1481,10 +1476,10 @@
       <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="59">
         <v>44658</v>
       </c>
-      <c r="G11" s="61"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,10 +1492,10 @@
       <c r="E12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="59"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1511,10 +1506,10 @@
       <c r="E13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="70">
         <v>44676</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1531,20 +1526,20 @@
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="1"/>
@@ -1553,17 +1548,17 @@
       <c r="A16" s="15">
         <v>1</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="18">
+      <c r="C16" s="44"/>
+      <c r="D16" s="17">
         <v>997221</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>0</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <v>3.25</v>
       </c>
       <c r="G16" s="16">
@@ -1576,13 +1571,13 @@
       <c r="A17" s="15">
         <v>2</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="16">
         <v>0</v>
       </c>
@@ -1592,13 +1587,13 @@
       <c r="A18" s="15">
         <v>3</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
+      <c r="B18" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="16">
         <f>IF(G17&gt;0, G17*0.24, 0)</f>
         <v>0</v>
@@ -1609,13 +1604,13 @@
       <c r="A19" s="15">
         <v>4</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="16">
         <v>0</v>
       </c>
@@ -1625,14 +1620,14 @@
       <c r="A20" s="15">
         <v>5</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="17">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="16">
         <f>SUM(G16:G19)</f>
         <v>0</v>
       </c>
@@ -1642,13 +1637,13 @@
       <c r="A21" s="15">
         <v>6</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="B21" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="16">
         <f>IF($G$20 &gt; 0, $G$20*0.09, 0)</f>
         <v>0</v>
@@ -1659,13 +1654,13 @@
       <c r="A22" s="15">
         <v>7</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
+      <c r="B22" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="16">
         <f>IF($G$20 &gt; 0, $G$20*0.09, 0)</f>
         <v>0</v>
@@ -1673,33 +1668,33 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="21">
         <v>8</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="23">
+      <c r="B23" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="22">
         <f>SUM(G20:G22)</f>
         <v>0</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="A24" s="21">
         <v>9</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
+      <c r="B24" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="16">
         <f>G25-G23</f>
         <v>0</v>
@@ -1707,157 +1702,157 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="25">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="24">
         <f>ROUND(G23, 0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="Q25" s="21"/>
+      <c r="Q25" s="20"/>
     </row>
     <row r="26" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="70"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="52"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="47"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="53"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="27"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="54" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="34"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="45.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="34"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42"/>
       <c r="H36" s="1"/>
     </row>
   </sheetData>
@@ -1877,8 +1872,7 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B21:F21"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="B15:C15"/>
@@ -1893,10 +1887,11 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/Input/MasterTemplate.xlsx
+++ b/src/Input/MasterTemplate.xlsx
@@ -3,19 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\invoice-generator\src\Input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED976CC-DDB3-4791-ADB6-0816E1677677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -31,40 +37,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particulars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSN/SAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sq. Ft. Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Area Maintenance (CAM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previous Dues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any Other  Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total (item 1 to 5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL AMOUNT PAYABLE BEFORE DUE DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMS &amp; CONDITIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCOUNT NAME: “ESSEL TOWERS ORLOV COURT RWA “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post Net Banking Transfer</t>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Particulars</t>
+  </si>
+  <si>
+    <t>HSN/SAC</t>
+  </si>
+  <si>
+    <t>Sq. Ft. Area</t>
+  </si>
+  <si>
+    <t>Common Area Maintenance (CAM)</t>
+  </si>
+  <si>
+    <t>Previous Dues</t>
+  </si>
+  <si>
+    <t>Any Other  Items</t>
+  </si>
+  <si>
+    <t>Total (item 1 to 5)</t>
+  </si>
+  <si>
+    <t>TOTAL AMOUNT PAYABLE BEFORE DUE DATE</t>
+  </si>
+  <si>
+    <t>TERMS &amp; CONDITIONS</t>
+  </si>
+  <si>
+    <t>ACCOUNT NAME: “ESSEL TOWERS ORLOV COURT RWA “</t>
+  </si>
+  <si>
+    <t>Post Net Banking Transfer</t>
   </si>
   <si>
     <r>
@@ -72,14 +78,14 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">orlovcourtrwa@</t>
+      <t>orlovcourtrwa@</t>
     </r>
     <r>
       <rPr>
@@ -89,18 +95,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">g</t>
+      <t>g</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">mail.com</t>
+      <t>mail.com</t>
     </r>
     <r>
       <rPr>
@@ -115,7 +121,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Account Payee/DD:</t>
+      <t>Account Payee/DD:</t>
     </r>
     <r>
       <rPr>
@@ -129,11 +135,11 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">ESSEL TOWERS ORLOV COURT RWA. </t>
@@ -146,15 +152,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Acknowledgement</t>
+      <t>Acknowledgement</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -167,12 +173,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">is subject to realization of cheque. Bank charges of Rs.500 will be payable on dishonored cheques. Outstation cheques, are required to be payable on Par in Gurugram and should be sent by courier to above mentioned ETOCRWA address. Payments above Rs.10,000/- will not be accepted in cash as per RBI Rules.</t>
+      <t>is subject to realization of cheque. Bank charges of Rs.500 will be payable on dishonored cheques. Outstation cheques, are required to be payable on Par in Gurugram and should be sent by courier to above mentioned ETOCRWA address. Payments above Rs.10,000/- will not be accepted in cash as per RBI Rules.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Discount:</t>
+      <t>Discount:</t>
     </r>
     <r>
       <rPr>
@@ -187,7 +193,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Outstanding Dues:</t>
+      <t>Outstanding Dues:</t>
     </r>
     <r>
       <rPr>
@@ -202,7 +208,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Disputes:</t>
+      <t>Disputes:</t>
     </r>
     <r>
       <rPr>
@@ -216,11 +222,11 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -233,95 +239,94 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">We declare this invoice shows the actual price of services described and that all particulars are true and correct.</t>
+      <t>We declare this invoice shows the actual price of services described and that all particulars are true and correct.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">This is a system generated document and does not require a signature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAX-INVOICE: MAINTENANCE/CAM BILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN NO:   AABAE2761L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSTIN/UIN: 06AABAE276ILIZQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essel Towers
+    <t>This is a system generated document and does not require a signature.</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Bill Date</t>
+  </si>
+  <si>
+    <t>Bill No</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Occupant</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>TAX-INVOICE: MAINTENANCE/CAM BILL</t>
+  </si>
+  <si>
+    <t>PAN NO:   AABAE2761L</t>
+  </si>
+  <si>
+    <t>GSTIN/UIN: 06AABAE276ILIZQ</t>
+  </si>
+  <si>
+    <t>Essel Towers
 Orlov Court Residents Welfare Association</t>
   </si>
   <si>
-    <t xml:space="preserve">NET BANKING-  NEFT/RTGS</t>
+    <t>NET BANKING-  NEFT/RTGS</t>
   </si>
   <si>
     <t xml:space="preserve">Bank Name:  HDFC Bank </t>
   </si>
   <si>
-    <t xml:space="preserve">Account No:  50100493615262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFSC Code:  HDFC0009390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapphire Court (L-Block), Basement, Essel Towers, Main M.G. Road, Sector-28, Gurgaon – 122002, Haryana 
+    <t>Account No:  50100493615262</t>
+  </si>
+  <si>
+    <t>IFSC Code:  HDFC0009390</t>
+  </si>
+  <si>
+    <t>Sapphire Court (L-Block), Basement, Essel Towers, Main M.G. Road, Sector-28, Gurgaon – 122002, Haryana 
 Email: orlovcourtrwa@gmail.com. Tel 0124 4144748</t>
   </si>
   <si>
-    <t xml:space="preserve">Rs. Per Sq. Ft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount Payable (Rs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount (in words)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr'22 to June'22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest on Previous Dues @ 24% annum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Goods &amp; Services Tax @ 9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Goods &amp; Services Tax @ 9%</t>
+    <t>Rs. Per Sq. Ft</t>
+  </si>
+  <si>
+    <t>Amount Payable (Rs)</t>
+  </si>
+  <si>
+    <t>Amount (in words)</t>
+  </si>
+  <si>
+    <t>SNo</t>
+  </si>
+  <si>
+    <t>Apr'22 to June'22</t>
+  </si>
+  <si>
+    <t>Interest on Previous Dues @ 24% annum</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Round off</t>
+  </si>
+  <si>
+    <t>State Goods &amp; Services Tax @ 9%</t>
+  </si>
+  <si>
+    <t>Central Goods &amp; Services Tax @ 9%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -749,7 +754,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -819,6 +824,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -828,6 +863,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -836,141 +976,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,11 +984,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1336,11 +1341,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,93 +1358,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1462,8 +1467,8 @@
       <c r="E10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,10 +1481,10 @@
       <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="27">
         <v>44658</v>
       </c>
-      <c r="G11" s="60"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1492,10 +1497,10 @@
       <c r="E12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="58"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1506,10 +1511,10 @@
       <c r="E13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="41">
         <v>44676</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1526,10 +1531,10 @@
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="18" t="s">
         <v>2</v>
       </c>
@@ -1548,10 +1553,10 @@
       <c r="A16" s="15">
         <v>1</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="17">
         <v>997221</v>
       </c>
@@ -1571,13 +1576,13 @@
       <c r="A17" s="15">
         <v>2</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="16">
         <v>0</v>
       </c>
@@ -1587,13 +1592,13 @@
       <c r="A18" s="15">
         <v>3</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="16">
         <f>IF(G17&gt;0, G17*0.24, 0)</f>
         <v>0</v>
@@ -1604,13 +1609,13 @@
       <c r="A19" s="15">
         <v>4</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="16">
         <v>0</v>
       </c>
@@ -1620,13 +1625,13 @@
       <c r="A20" s="15">
         <v>5</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="16">
         <f>SUM(G16:G19)</f>
         <v>0</v>
@@ -1637,15 +1642,15 @@
       <c r="A21" s="15">
         <v>6</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="16">
-        <f>IF($G$20 &gt; 0, $G$20*0.09, 0)</f>
+        <f>IF(G20 &gt; 0, G20*0.09, 0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="1"/>
@@ -1654,15 +1659,15 @@
       <c r="A22" s="15">
         <v>7</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="16">
-        <f>IF($G$20 &gt; 0, $G$20*0.09, 0)</f>
+        <f>IF(G20 &gt; 0, G20*0.09, 0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="1"/>
@@ -1671,13 +1676,13 @@
       <c r="A23" s="21">
         <v>8</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="22">
         <f>SUM(G20:G22)</f>
         <v>0</v>
@@ -1688,13 +1693,13 @@
       <c r="A24" s="21">
         <v>9</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="16">
         <f>G25-G23</f>
         <v>0</v>
@@ -1702,14 +1707,14 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="24">
         <f>ROUND(G23, 0)</f>
         <v>0</v>
@@ -1718,145 +1723,164 @@
       <c r="Q25" s="20"/>
     </row>
     <row r="26" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="47"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="49"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="52" t="s">
+      <c r="B31" s="61"/>
+      <c r="C31" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="69"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="45.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="34"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
       <c r="H36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F10:G10"/>
@@ -1873,25 +1897,6 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B21:F21"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/Input/MasterTemplate.xlsx
+++ b/src/Input/MasterTemplate.xlsx
@@ -3,25 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\invoice-generator\src\Input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED976CC-DDB3-4791-ADB6-0816E1677677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -37,40 +31,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Particulars</t>
-  </si>
-  <si>
-    <t>HSN/SAC</t>
-  </si>
-  <si>
-    <t>Sq. Ft. Area</t>
-  </si>
-  <si>
-    <t>Common Area Maintenance (CAM)</t>
-  </si>
-  <si>
-    <t>Previous Dues</t>
-  </si>
-  <si>
-    <t>Any Other  Items</t>
-  </si>
-  <si>
-    <t>Total (item 1 to 5)</t>
-  </si>
-  <si>
-    <t>TOTAL AMOUNT PAYABLE BEFORE DUE DATE</t>
-  </si>
-  <si>
-    <t>TERMS &amp; CONDITIONS</t>
-  </si>
-  <si>
-    <t>ACCOUNT NAME: “ESSEL TOWERS ORLOV COURT RWA “</t>
-  </si>
-  <si>
-    <t>Post Net Banking Transfer</t>
+    <t xml:space="preserve">Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSN/SAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sq. Ft. Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Area Maintenance (CAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous Dues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any Other  Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL AMOUNT PAYABLE BEFORE DUE DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMS &amp; CONDITIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCOUNT NAME: “ESSEL TOWERS ORLOV COURT RWA “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Net Banking Transfer</t>
   </si>
   <si>
     <r>
@@ -78,14 +69,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
         <scheme val="minor"/>
       </rPr>
-      <t>orlovcourtrwa@</t>
+      <t xml:space="preserve">orlovcourtrwa@</t>
     </r>
     <r>
       <rPr>
@@ -95,18 +86,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>g</t>
+      <t xml:space="preserve">g</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
         <scheme val="minor"/>
       </rPr>
-      <t>mail.com</t>
+      <t xml:space="preserve">mail.com</t>
     </r>
     <r>
       <rPr>
@@ -121,7 +112,7 @@
   </si>
   <si>
     <r>
-      <t>Account Payee/DD:</t>
+      <t xml:space="preserve">Account Payee/DD:</t>
     </r>
     <r>
       <rPr>
@@ -135,11 +126,11 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">ESSEL TOWERS ORLOV COURT RWA. </t>
@@ -152,15 +143,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Acknowledgement</t>
+      <t xml:space="preserve">Acknowledgement</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -173,12 +164,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>is subject to realization of cheque. Bank charges of Rs.500 will be payable on dishonored cheques. Outstation cheques, are required to be payable on Par in Gurugram and should be sent by courier to above mentioned ETOCRWA address. Payments above Rs.10,000/- will not be accepted in cash as per RBI Rules.</t>
+      <t xml:space="preserve">is subject to realization of cheque. Bank charges of Rs.500 will be payable on dishonored cheques. Outstation cheques, are required to be payable on Par in Gurugram and should be sent by courier to above mentioned ETOCRWA address. Payments above Rs.10,000/- will not be accepted in cash as per RBI Rules.</t>
     </r>
   </si>
   <si>
     <r>
-      <t>Discount:</t>
+      <t xml:space="preserve">Discount:</t>
     </r>
     <r>
       <rPr>
@@ -193,7 +184,7 @@
   </si>
   <si>
     <r>
-      <t>Outstanding Dues:</t>
+      <t xml:space="preserve">Outstanding Dues:</t>
     </r>
     <r>
       <rPr>
@@ -208,7 +199,7 @@
   </si>
   <si>
     <r>
-      <t>Disputes:</t>
+      <t xml:space="preserve">Disputes:</t>
     </r>
     <r>
       <rPr>
@@ -222,11 +213,11 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -239,94 +230,98 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>We declare this invoice shows the actual price of services described and that all particulars are true and correct.</t>
+      <t xml:space="preserve">We declare this invoice shows the actual price of services described and that all particulars are true and correct.</t>
     </r>
   </si>
   <si>
-    <t>This is a system generated document and does not require a signature.</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Bill Date</t>
-  </si>
-  <si>
-    <t>Bill No</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Occupant</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>TAX-INVOICE: MAINTENANCE/CAM BILL</t>
-  </si>
-  <si>
-    <t>PAN NO:   AABAE2761L</t>
-  </si>
-  <si>
-    <t>GSTIN/UIN: 06AABAE276ILIZQ</t>
-  </si>
-  <si>
-    <t>Essel Towers
+    <t xml:space="preserve">This is a system generated document and does not require a signature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAX-INVOICE: MAINTENANCE/CAM BILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAN NO:   AABAE2761L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSTIN/UIN: 06AABAE276ILIZQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essel Towers
 Orlov Court Residents Welfare Association</t>
   </si>
   <si>
-    <t>NET BANKING-  NEFT/RTGS</t>
+    <t xml:space="preserve">NET BANKING-  NEFT/RTGS</t>
   </si>
   <si>
     <t xml:space="preserve">Bank Name:  HDFC Bank </t>
   </si>
   <si>
-    <t>Account No:  50100493615262</t>
-  </si>
-  <si>
-    <t>IFSC Code:  HDFC0009390</t>
-  </si>
-  <si>
-    <t>Sapphire Court (L-Block), Basement, Essel Towers, Main M.G. Road, Sector-28, Gurgaon – 122002, Haryana 
+    <t xml:space="preserve">Account No:  50100493615262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFSC Code:  HDFC0009390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapphire Court (L-Block), Basement, Essel Towers, Main M.G. Road, Sector-28, Gurgaon – 122002, Haryana 
 Email: orlovcourtrwa@gmail.com. Tel 0124 4144748</t>
   </si>
   <si>
-    <t>Rs. Per Sq. Ft</t>
-  </si>
-  <si>
-    <t>Amount Payable (Rs)</t>
-  </si>
-  <si>
-    <t>Amount (in words)</t>
-  </si>
-  <si>
-    <t>SNo</t>
-  </si>
-  <si>
-    <t>Apr'22 to June'22</t>
-  </si>
-  <si>
-    <t>Interest on Previous Dues @ 24% annum</t>
-  </si>
-  <si>
-    <t>Sub Total</t>
-  </si>
-  <si>
-    <t>Round off</t>
-  </si>
-  <si>
-    <t>State Goods &amp; Services Tax @ 9%</t>
-  </si>
-  <si>
-    <t>Central Goods &amp; Services Tax @ 9%</t>
+    <t xml:space="preserve">Rs. Per Sq. Ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount Payable (Rs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount (in words)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr'22 to June'22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest on Previous Dues @ 24% annum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Goods &amp; Services Tax @ 9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Goods &amp; Services Tax @ 9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total (3 to 7)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -754,7 +749,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -824,6 +819,102 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -854,15 +945,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -889,93 +971,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,11 +979,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1341,113 +1336,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" customWidth="1"/>
+    <col min="7" max="7" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
+    <row r="6" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.55">
+      <c r="A8" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1457,7 +1452,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="B10" s="11" t="s">
         <v>0</v>
@@ -1465,59 +1460,59 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="27">
+        <v>18</v>
+      </c>
+      <c r="F11" s="59">
         <v>44658</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10"/>
       <c r="B12" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="58"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="41">
+        <v>22</v>
+      </c>
+      <c r="F13" s="70">
         <v>44676</v>
       </c>
-      <c r="G13" s="42"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1527,14 +1522,14 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="18" t="s">
         <v>2</v>
       </c>
@@ -1542,21 +1537,21 @@
         <v>3</v>
       </c>
       <c r="F15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>34</v>
-      </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="15">
         <v>1</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="17">
         <v>997221</v>
       </c>
@@ -1572,149 +1567,149 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="15">
         <v>2</v>
       </c>
-      <c r="B17" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
+      <c r="B17" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="56"/>
       <c r="G17" s="16">
         <v>0</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="15">
         <v>3</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="16">
-        <f>IF(G17&gt;0, G17*0.24, 0)</f>
+        <f>SUM(G16:G17)</f>
         <v>0</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="15">
         <v>4</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
+      <c r="B19" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="16">
+        <f>IF(G18 &gt; 0, G18*0.09, 0)</f>
         <v>0</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="15">
         <v>5</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
+      <c r="B20" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="16">
-        <f>SUM(G16:G19)</f>
+        <f>IF(G18 &gt; 0, G18*0.09, 0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="15">
         <v>6</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
+      <c r="B21" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="16">
-        <f>IF(G20 &gt; 0, G20*0.09, 0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="15">
         <v>7</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
+      <c r="B22" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="16">
-        <f>IF(G20 &gt; 0, G20*0.09, 0)</f>
+        <f>IF(G21&gt;0, G21*0.24, 0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="21">
         <v>8</v>
       </c>
-      <c r="B23" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
+      <c r="B23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="22">
-        <f>SUM(G20:G22)</f>
+        <f>SUM(G18:G22)</f>
         <v>0</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="21">
         <v>9</v>
       </c>
-      <c r="B24" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="75"/>
+      <c r="B24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="16">
         <f>G25-G23</f>
         <v>0</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+    <row r="25" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="24">
         <f>ROUND(G23, 0)</f>
         <v>0</v>
@@ -1722,165 +1717,146 @@
       <c r="H25" s="1"/>
       <c r="Q25" s="20"/>
     </row>
-    <row r="26" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
+    <row r="26" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+    <row r="27" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+    <row r="28" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="64" t="s">
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="45.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="45.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="39"/>
       <c r="H36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F10:G10"/>
@@ -1888,15 +1864,34 @@
     <mergeCell ref="A1:E4"/>
     <mergeCell ref="F1:G4"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B17:F17"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="A5:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B21:F21"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/Input/MasterTemplate.xlsx
+++ b/src/Input/MasterTemplate.xlsx
@@ -56,59 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">TERMS &amp; CONDITIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCOUNT NAME: “ESSEL TOWERS ORLOV COURT RWA “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post Net Banking Transfer</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kindly send confirmation  email to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <b/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">orlovcourtrwa@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <b/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">mail.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> giving Name/ Apartment No/ Bank &amp; Branch/ Transaction No/Date of Transfer  &amp; Transfer Amount</t>
-    </r>
   </si>
   <si>
     <r>
@@ -198,12 +145,95 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">This is a system generated document and does not require a signature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAX-INVOICE: MAINTENANCE/CAM BILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAN NO:   AABAE2761L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSTIN/UIN: 06AABAE276ILIZQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essel Towers
+Orlov Court Residents Welfare Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NET BANKING-  NEFT/RTGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Name:  HDFC Bank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account No:  50100493615262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFSC Code:  HDFC0009390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapphire Court (L-Block), Basement, Essel Towers, Main M.G. Road, Sector-28, Gurgaon – 122002, Haryana 
+Email: orlovcourtrwa@gmail.com. Tel 0124 4144748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rs. Per Sq. Ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount Payable (Rs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount (in words)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr'22 to June'22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest on Previous Dues @ 24% annum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Goods &amp; Services Tax @ 9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Goods &amp; Services Tax @ 9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total (3 to 7)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Disputes:</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -213,7 +243,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -224,7 +254,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -234,95 +264,56 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">This is a system generated document and does not require a signature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAX-INVOICE: MAINTENANCE/CAM BILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN NO:   AABAE2761L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSTIN/UIN: 06AABAE276ILIZQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essel Towers
-Orlov Court Residents Welfare Association</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NET BANKING-  NEFT/RTGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Name:  HDFC Bank </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account No:  50100493615262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFSC Code:  HDFC0009390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapphire Court (L-Block), Basement, Essel Towers, Main M.G. Road, Sector-28, Gurgaon – 122002, Haryana 
-Email: orlovcourtrwa@gmail.com. Tel 0124 4144748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rs. Per Sq. Ft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount Payable (Rs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount (in words)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr'22 to June'22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest on Previous Dues @ 24% annum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Goods &amp; Services Tax @ 9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Goods &amp; Services Tax @ 9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total (3 to 7)</t>
+    <r>
+      <t xml:space="preserve">Post Net Banking Transfer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Kindly send confirmation  email to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <b/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">orlovcourtrwa@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> giving Name/ Apartment No/ Bank &amp; Branch/ Transaction No/Date of Transfer  &amp; Transfer Amount</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCOUNT NAME: “ESSEL TOWERS ORLOV COURT RWA“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E. and O.E.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,21 +324,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -391,6 +367,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -590,51 +573,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -740,6 +678,45 @@
       </left>
       <right/>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -751,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -804,12 +781,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -819,158 +790,149 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1337,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1353,93 +1315,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="A1" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="E7" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.55">
-      <c r="A8" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55">
+      <c r="A8" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1452,7 +1414,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="B10" s="11" t="s">
         <v>0</v>
@@ -1460,42 +1422,42 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="59">
+        <v>14</v>
+      </c>
+      <c r="F11" s="52">
         <v>44658</v>
       </c>
-      <c r="G11" s="60"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10"/>
       <c r="B12" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="58"/>
+        <v>16</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="66"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1504,12 +1466,12 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="70">
+        <v>18</v>
+      </c>
+      <c r="F13" s="47">
         <v>44676</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1522,40 +1484,40 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>33</v>
+      <c r="F15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="15">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="17">
         <v>997221</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>0</v>
       </c>
       <c r="F16" s="17">
@@ -1571,29 +1533,29 @@
       <c r="A17" s="15">
         <v>2</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="16">
         <v>0</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="15">
         <v>3</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
+      <c r="B18" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="16">
         <f>SUM(G16:G17)</f>
         <v>0</v>
@@ -1604,13 +1566,13 @@
       <c r="A19" s="15">
         <v>4</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
+      <c r="B19" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="16">
         <f>IF(G18 &gt; 0, G18*0.09, 0)</f>
         <v>0</v>
@@ -1621,13 +1583,13 @@
       <c r="A20" s="15">
         <v>5</v>
       </c>
-      <c r="B20" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
+      <c r="B20" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="16">
         <f>IF(G18 &gt; 0, G18*0.09, 0)</f>
         <v>0</v>
@@ -1638,29 +1600,29 @@
       <c r="A21" s="15">
         <v>6</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="16">
         <v>0</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="15">
         <v>7</v>
       </c>
-      <c r="B22" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
+      <c r="B22" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="16">
         <f>IF(G21&gt;0, G21*0.24, 0)</f>
         <v>0</v>
@@ -1668,195 +1630,198 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A23" s="21">
+      <c r="A23" s="19">
         <v>8</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="22">
+      <c r="B23" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="20">
         <f>SUM(G18:G22)</f>
         <v>0</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A24" s="21">
+      <c r="A24" s="19">
         <v>9</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
+      <c r="B24" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="16">
         <f>G25-G23</f>
         <v>0</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="45" t="s">
+    <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="24">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="22">
         <f>ROUND(G23, 0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="Q25" s="20"/>
+      <c r="Q25" s="18"/>
     </row>
     <row r="26" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69"/>
+      <c r="A26" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="63"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="44"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A29" s="45" t="s">
+    <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="58"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="53" t="s">
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="49" t="s">
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="28" t="s">
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="45.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61"/>
       <c r="H36" s="1"/>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G37" s="70" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="34">
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F10:G10"/>
@@ -1888,10 +1853,9 @@
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="C31:G31"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
